--- a/biology/Histoire de la zoologie et de la botanique/Paul_Remy_(zoologiste)/Paul_Remy_(zoologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_Remy_(zoologiste)/Paul_Remy_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Auguste Remy (Servance, 7 novembre 1894 – Makokou, 19 mars 1962), est un spéléologue et zoologiste français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Servance, en Haute-Saône, Paul Remy est le fils d'un cultivateur, Joseph Modeste Remy, et de Marie Sophie Eugénie Faivre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Servance, en Haute-Saône, Paul Remy est le fils d'un cultivateur, Joseph Modeste Remy, et de Marie Sophie Eugénie Faivre.
 Repéré par l'instituteur de l'école communale du Moisseaubeau, il poursuit ses études au lycée Gérôme de Vesoul et obtient le baccalauréat en 1913.
 Il entre alors à la Sorbonne pour préparer une licence de sciences naturelles qu'il n'achève pas à cause de la mobilisation.
 En 1914, il fait partie du corps expéditionnaire des Dardanelles puis il est intégré dans l'Armée française d'Orient.
@@ -526,13 +540,13 @@
 Il est ensuite sollicité pour travailler sur la faune cavernicole et il devient le spécialiste mondial des Pauropodes.
 L'exploration des grottes, commencée en Lorraine, se poursuit dans les Balkans (1930, 1933 et 1936), le Jura, la Corse (1942 et 1948) et l'Afrique du Nord (1946).
 Il quitte Nancy pour Strasbourg en 1933 pour devenir maître de conférences puis professeur sans chaire, mais revient à Nancy en 1937 pour succéder à Lucien Cuénot dans la chaire de zoologie générale de la faculté des sciences de Nancy et la direction du muséum d'histoire naturelle de Nancy.
-Chevalier de la Légion d’honneur depuis 1934 à titre militaire, il est promu officier de l’ordre le 6 février 1952[2].
+Chevalier de la Légion d’honneur depuis 1934 à titre militaire, il est promu officier de l’ordre le 6 février 1952.
 En 1960, il part pour Paris où il occupe la chaire d'écologie générale du Muséum national d'histoire naturelle.
 Le 16 février 1962 il conduit une équipe au Gabon pour étudier la faune forestière.
 Frappé par une crise cardiaque le 25 février 1962 lors d'une présentation de la Mission au président Léon Mba, il est très affaibli et décède le 19 mars 1962 après avoir rédigé un testament dans lequel il légua la moitié de sa bibliothèque au laboratoire de zoologie de Nancy.
-Il devient membre titulaire de la Société des sciences de Nancy le 13 février 1923[3] puis académicien de la 2e section[4].
+Il devient membre titulaire de la Société des sciences de Nancy le 13 février 1923 puis académicien de la 2e section.
 En 1947, il devient membre honoraire de l'Académie malgache, puis membre honoraire de l'Institut Grand-ducal de Luxembourg en 1955, membre associé correspondant de l'Académie de Stanislas en 1958 et membre honoraire de la Société entomologique de France en 1960.
-En 1946, Jean Bourgogne (°1903 - †1999) et Paul Remy parrainèrent Bruno Condé (°1920 - †2004) à la Société zoologique de France. Remy en fut président en 1957[5].
+En 1946, Jean Bourgogne (°1903 - †1999) et Paul Remy parrainèrent Bruno Condé (°1920 - †2004) à la Société zoologique de France. Remy en fut président en 1957.
 </t>
         </is>
       </c>
@@ -561,7 +575,9 @@
           <t>Œuvre spéléologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès le début de ses recherches Paul Remy s'intéresse à la faune cavernicole et interstitielle. En 1926, il présente deux notes dans lesquelles il s'interroge sur la migration des Niphargus des nappes et fissures du sol vers les sources et grottes. Il entreprend l'exploration minutieuse de la grotte Sainte Reine à Pierre-la-Treiche et prélève des biotes pour étude. Il dresse un catalogue de la faune hypogée en 1927 puis 1932 dans lequel il recense une quarantaine de formes terrestres ou aquatiques.
 Encouragé par le professeur René Jeannel, Remy explore le karst de Novi-Pazar en Yougoslavie et visite seul une quinzaine de grottes en 1930. Trois ans plus tard, il explore une quarantaine de nouvelles cavités en compagnie de R. Husson de Nancy. La même année il explore vingt-trois nouvelles cavernes en Macédoine grecque. Une troisième mission a lieu en 1936 en Herzégovine et au Monténégro. À l'issue de ces campagnes, Remy étudie personnellement, ou fait étudier par d'autres, dont Jeannel, un important matériau zoologique. Parmi les découvertes les plus spectaculaires, on lui doit une colonie importante de serpules Marifugia cavatica dans le ponor de Crnulja, de l'amphipode Niphargus balcanicus dans la grotte du Vent en Herzégovine, du diploure Plusiocampa (Stygiocampa) remyi, ainsi que des observations éthologiques faites sur place comme les mœurs de certains orthoptères et du comportement du coléoptère Hadesia vasiceki.
@@ -599,17 +615,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Décorations
- Officier de la Légion d'honneur (décret du 6 février 1952)
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur (décret du 6 février 1952)
  Officier de l'Instruction publique (1938)
  Croix de guerre 1914-1918
  Médaille commémorative de la guerre 1914-1918
  Médaille commémorative des Dardanelles
  Médaille commémorative d'Orient
-Médaille d'or de la bravoure (Serbie)
-Distinction
-Lauréat de l'Institut de France (prix Millet-Ronssin) pour l'ensemble de son œuvre zoologique (1937)
-Une rue du village de Servance porte son nom.</t>
+Médaille d'or de la bravoure (Serbie)</t>
         </is>
       </c>
     </row>
@@ -634,10 +652,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Décorations et distinction</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Distinction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lauréat de l'Institut de France (prix Millet-Ronssin) pour l'ensemble de son œuvre zoologique (1937)
+Une rue du village de Servance porte son nom.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paul_Remy_(zoologiste)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Remy_(zoologiste)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des taxa décrits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Remy a décrit 80 espèces :
 Acopauropus consobrinus Remy, 1937
@@ -713,31 +770,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Paul_Remy_(zoologiste)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Paul_Remy_(zoologiste)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Taxa dédiés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">62 espèces sont nommées remyi en honneur à Paul Remy :
 Acerella remyi Condé, 1944
@@ -755,7 +814,7 @@
 Diadocis remyi Viette, 1954
 Dolichopoda remyi Chopard, 1934
 Eudendrocoelum remyi de Beauchamp, 1926
-Eukoenenia pauli Condé, 1979[6]
+Eukoenenia pauli Condé, 1979
 Eukoenenia remyi Condé, 1974
 Euphorbia remyi A.Gray ex Boiss.
 Exocelina remyi Wewalka, Balke &amp; Hendrich, 2010
@@ -797,7 +856,7 @@
 Suncus remyi Brosset, Dubost &amp; Heim de Balsac, 1965
 Tetramolopium remyi (A.Gray) Hillebr.
 Trachelipus remyi Verhoeff, 1933
-Triadokoenenia millotorum Remy Condé, 1991[7]
+Triadokoenenia millotorum Remy Condé, 1991
 Trichoniscoides remyi Bonnefoy, 1945
 Troglocyphoniscus remyi Vandel, 1946
 Vittadinia remyi A.Gray
@@ -807,31 +866,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Paul_Remy_(zoologiste)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Paul_Remy_(zoologiste)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>« L'iode et le développement des insectes », Bulletin de la Société des sciences de Nancy [PDF] Série IV tome II, 1923, Société des sciences de Nancy, Nancy, p. 44-54
 Contribution à l'étude de l'appareil respiratoire &amp; de la respiration chez quelques invertébrés, thèse, Nancy, 1925, Ancienne Imprimerie Vagner
